--- a/docs/Planning/Risk_Assessment.xlsx
+++ b/docs/Planning/Risk_Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbfh/Documents/Uni/Year2/Software Engineering/Project/Team-11-Project/docs/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5B0F3-FCBA-204F-BD85-E57A2F82D1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CB7B5-DC9B-534C-8E5D-0ECF24737478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,340 +945,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="63.83203125" customWidth="1"/>
-    <col min="10" max="10" width="51.5" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="63.83203125" customWidth="1"/>
+    <col min="11" max="11" width="51.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="1" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="6">
+      <c r="G3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>5</v>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="6">
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="6">
+      <c r="G5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="6">
         <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6">
+      <c r="C7" s="8"/>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" s="21" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" s="21" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8" s="21" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" s="21" customFormat="1" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="G13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="C16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="45"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="46">
+      <c r="C17" s="46">
         <v>43776</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
+      <c r="D17" s="38"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
       <c r="C18" s="5"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="2"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E27" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10:G10">
+  <conditionalFormatting sqref="G10:H10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1290,7 +1291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -1302,7 +1303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D13 F13">
+  <conditionalFormatting sqref="E11:E13 G13">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -1314,7 +1315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G12 G13">
+  <conditionalFormatting sqref="G11:H12 H13">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -1326,8 +1327,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13 F10:G13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E13 G10:H13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1338,7 +1339,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="77" operator="containsText" id="{7AF3A01D-44ED-402E-8EA8-3340C82EC269}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1349,7 +1350,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="78" operator="containsText" id="{2496FC90-7570-45B6-BC7C-0019BF81C933}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1360,7 +1361,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="79" operator="containsText" id="{F1F09171-E4C6-4E8C-A97D-258FEF96E5A3}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1371,7 +1372,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="80" operator="containsText" id="{A7B13C1F-9C08-4B97-849E-2AEBEB4D4B6D}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1381,11 +1382,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D11:D13 F13</xm:sqref>
+          <xm:sqref>E11:E13 G13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{584F0047-F9FC-48B3-8E58-0BDBA6822E38}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1396,7 +1397,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4514EF31-7630-41F3-B155-838E1F83B3E5}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1407,7 +1408,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{E9433A89-211C-44C4-A2A0-CA83ABA41649}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1418,7 +1419,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{2D0F721F-0437-4A46-8EAD-5AE5E5DC60EF}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,F11)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,G11)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1428,11 +1429,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F11:G12 G13</xm:sqref>
+          <xm:sqref>G11:H12 H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2D882B36-CDA9-453C-A838-6121A2E56D63}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E10)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1443,7 +1444,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{03C1C7BB-105C-408B-BB24-65B5115ED927}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E10)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1454,7 +1455,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{F4806F0C-5399-4257-8DFF-9B18BCB8D720}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E10)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1465,7 +1466,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{8803F606-0DD3-4AFB-8C0B-28CEF648F9CD}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,D10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(#REF!,E10)))</xm:f>
             <xm:f>#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -1475,7 +1476,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D10 F10:G10</xm:sqref>
+          <xm:sqref>E10 G10:H10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
